--- a/CoffeeOrdersData.xlsx
+++ b/CoffeeOrdersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thien An\Projects\Excel_Project1_CoffeeOrders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5F0F5E-D05C-4816-8CBF-EB7814E6390B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569D8BF-C711-4A0C-88B1-DB094A045205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67450,7 +67450,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67507,7 +67507,7 @@
         <v>1.9424999999999999</v>
       </c>
       <c r="G2">
-        <v>0.34964999999999996</v>
+        <v>0.34965000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">

--- a/CoffeeOrdersData.xlsx
+++ b/CoffeeOrdersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thien An\Projects\Excel_Project1_CoffeeOrders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2569D8BF-C711-4A0C-88B1-DB094A045205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42C9A7C-DC43-403B-A44E-EEFB94998C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11057" uniqueCount="6196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11058" uniqueCount="6197">
   <si>
     <t>Order ID</t>
   </si>
@@ -18627,6 +18627,9 @@
   </si>
   <si>
     <t>Lib</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -67447,10 +67450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7528DE5F-CE95-4FA1-BC31-D5BA79125573}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M20"/>
+      <selection activeCell="W22" sqref="W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -67464,7 +67467,7 @@
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -67487,7 +67490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6167</v>
       </c>
@@ -67510,7 +67513,7 @@
         <v>0.34965000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6180</v>
       </c>
@@ -67533,7 +67536,7 @@
         <v>0.69929999999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6140</v>
       </c>
@@ -67556,7 +67559,7 @@
         <v>1.1655</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6182</v>
       </c>
@@ -67579,7 +67582,7 @@
         <v>2.6806499999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6152</v>
       </c>
@@ -67602,7 +67605,7 @@
         <v>0.30375000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6157</v>
       </c>
@@ -67625,7 +67628,7 @@
         <v>0.60749999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6155</v>
       </c>
@@ -67648,7 +67651,7 @@
         <v>1.0125</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6175</v>
       </c>
@@ -67671,7 +67674,7 @@
         <v>2.3287499999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6154</v>
       </c>
@@ -67694,7 +67697,7 @@
         <v>0.26865</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6158</v>
       </c>
@@ -67717,7 +67720,7 @@
         <v>0.5373</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6147</v>
       </c>
@@ -67739,8 +67742,11 @@
       <c r="G12">
         <v>0.89549999999999985</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="L12" t="s">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>6168</v>
       </c>
@@ -67763,7 +67769,7 @@
         <v>2.0596499999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>6178</v>
       </c>
@@ -67786,7 +67792,7 @@
         <v>0.21509999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>6173</v>
       </c>
@@ -67809,7 +67815,7 @@
         <v>0.43019999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>6179</v>
       </c>
